--- a/RndNumberSort/тп2.xlsx
+++ b/RndNumberSort/тп2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.zykin\Desktop\Хлопин 2 сем\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordi\source\repos\lordireality\RndNumberSort\RndNumberSort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D54867-D15A-4766-8225-53E347AA2CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4492AEF7-EA34-473F-9CD2-DAADAB61A91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{8C80E211-F6CE-484E-BBC7-80232878B604}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C80E211-F6CE-484E-BBC7-80232878B604}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -296,27 +296,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4465</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>293761</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -389,27 +368,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>294528</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -774,27 +732,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9631</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>144926</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -867,27 +804,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>761</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1252,27 +1168,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4465</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73153</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>293761</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1345,27 +1240,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73536</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>294528</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1725,27 +1599,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9631</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36191</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>144926</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1818,27 +1671,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>761</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2204,25 +2036,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7403626894942439</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.403120521175818</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0338256939533101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6498214632245651</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2587569725365757</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8642321412163501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4679941379176036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,25 +2129,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.8195439355418688</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4409090820652177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0523090996473234</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6589648426644348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2633046002872961</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8665000026721721</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4691265883165121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,25 +2514,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5314789170422551</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0969100130080562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7466341989375787</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.398287305357401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9836713828601966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5586005833425682</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1611463057168381</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,25 +2607,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.90308998699194354</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3222192947339193</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6232492903979006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9637878273455553</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.271841606536499</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5693739096150461</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8813846567705728</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,25 +2992,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0073331852324712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5333894887275203</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9856418176392081</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4040244933105992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8061503196471715</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.200308417227276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.590521790547902</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3253,25 +3085,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.1896547420264252</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6204008657171496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0282014320580046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4250779025084324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.816621619514466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.205530361208428</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.593129353954984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,25 +3474,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.5263605246161616</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8283137373023015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3243589623813108</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.824845691026856</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1727423415608644</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.496565748118559</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.883978546304879</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3735,25 +3567,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.044522437723423</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7376696182833684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5217885770490405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2311086168545868</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.916202062607435</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6346333578616861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9022,7 +8854,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9156,455 +8988,399 @@
       <c r="A4" s="1">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <f>B4/$A4</f>
-        <v>4.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ref="G4:I10" si="0">C4/$A4</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>2.8333333333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="e">
         <f>LOG(B4)</f>
-        <v>1.7403626894942439</v>
-      </c>
-      <c r="K4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K4" s="2" t="e">
         <f t="shared" ref="K4:M4" si="1">LOG(C4)</f>
-        <v>1.8195439355418688</v>
-      </c>
-      <c r="L4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L4" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>1.5314789170422551</v>
-      </c>
-      <c r="M4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M4" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>0.90308998699194354</v>
-      </c>
-      <c r="N4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N4" s="2" t="e">
         <f t="shared" ref="N4:Q10" si="2">LN(B4)</f>
-        <v>4.0073331852324712</v>
-      </c>
-      <c r="O4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>4.1896547420264252</v>
-      </c>
-      <c r="P4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3.5263605246161616</v>
-      </c>
-      <c r="Q4" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q4" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>2.0794415416798357</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
-        <v>253</v>
-      </c>
-      <c r="C5" s="2">
-        <v>276</v>
-      </c>
-      <c r="D5" s="2">
-        <v>125</v>
-      </c>
-      <c r="E5" s="2">
-        <v>21</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F10" si="3">B5/$A5</f>
-        <v>10.541666666666666</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>5.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="e">
         <f t="shared" ref="J5:J10" si="4">LOG(B5)</f>
-        <v>2.403120521175818</v>
-      </c>
-      <c r="K5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K5" s="2" t="e">
         <f t="shared" ref="K5:K10" si="5">LOG(C5)</f>
-        <v>2.4409090820652177</v>
-      </c>
-      <c r="L5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L5" s="2" t="e">
         <f t="shared" ref="L5:L10" si="6">LOG(D5)</f>
-        <v>2.0969100130080562</v>
-      </c>
-      <c r="M5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="2" t="e">
         <f t="shared" ref="M5:M10" si="7">LOG(E5)</f>
-        <v>1.3222192947339193</v>
-      </c>
-      <c r="N5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5.5333894887275203</v>
-      </c>
-      <c r="O5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5.6204008657171496</v>
-      </c>
-      <c r="P5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>4.8283137373023015</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q5" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3.044522437723423</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>48</v>
       </c>
-      <c r="B6" s="2">
-        <v>1081</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1128</v>
-      </c>
-      <c r="D6" s="2">
-        <v>558</v>
-      </c>
-      <c r="E6" s="2">
-        <v>42</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>22.520833333333332</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>11.625</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>3.0338256939533101</v>
-      </c>
-      <c r="K6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K6" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>3.0523090996473234</v>
-      </c>
-      <c r="L6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L6" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>2.7466341989375787</v>
-      </c>
-      <c r="M6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M6" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>1.6232492903979006</v>
-      </c>
-      <c r="N6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N6" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>6.9856418176392081</v>
-      </c>
-      <c r="O6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O6" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>7.0282014320580046</v>
-      </c>
-      <c r="P6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P6" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>6.3243589623813108</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q6" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3.7376696182833684</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>96</v>
       </c>
-      <c r="B7" s="2">
-        <v>4465</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4560</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2502</v>
-      </c>
-      <c r="E7" s="2">
-        <v>92</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>46.510416666666664</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>26.0625</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>3.6498214632245651</v>
-      </c>
-      <c r="K7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K7" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>3.6589648426644348</v>
-      </c>
-      <c r="L7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L7" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>3.398287305357401</v>
-      </c>
-      <c r="M7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M7" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>1.9637878273455553</v>
-      </c>
-      <c r="N7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N7" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>8.4040244933105992</v>
-      </c>
-      <c r="O7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O7" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>8.4250779025084324</v>
-      </c>
-      <c r="P7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P7" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>7.824845691026856</v>
-      </c>
-      <c r="Q7" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q7" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>4.5217885770490405</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>192</v>
       </c>
-      <c r="B8" s="2">
-        <v>18145</v>
-      </c>
-      <c r="C8" s="2">
-        <v>18336</v>
-      </c>
-      <c r="D8" s="2">
-        <v>9631</v>
-      </c>
-      <c r="E8" s="2">
-        <v>187</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>94.505208333333329</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>50.161458333333336</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.97395833333333337</v>
-      </c>
-      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>4.2587569725365757</v>
-      </c>
-      <c r="K8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K8" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>4.2633046002872961</v>
-      </c>
-      <c r="L8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L8" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>3.9836713828601966</v>
-      </c>
-      <c r="M8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M8" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>2.271841606536499</v>
-      </c>
-      <c r="N8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>9.8061503196471715</v>
-      </c>
-      <c r="O8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>9.816621619514466</v>
-      </c>
-      <c r="P8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>9.1727423415608644</v>
-      </c>
-      <c r="Q8" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q8" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5.2311086168545868</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>384</v>
       </c>
-      <c r="B9" s="2">
-        <v>73153</v>
-      </c>
-      <c r="C9" s="2">
-        <v>73536</v>
-      </c>
-      <c r="D9" s="2">
-        <v>36191</v>
-      </c>
-      <c r="E9" s="2">
-        <v>371</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>190.50260416666666</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>191.5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>94.247395833333329</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.96614583333333337</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>4.8642321412163501</v>
-      </c>
-      <c r="K9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K9" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>4.8665000026721721</v>
-      </c>
-      <c r="L9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>4.5586005833425682</v>
-      </c>
-      <c r="M9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>2.5693739096150461</v>
-      </c>
-      <c r="N9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>11.200308417227276</v>
-      </c>
-      <c r="O9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>11.205530361208428</v>
-      </c>
-      <c r="P9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>10.496565748118559</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q9" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>5.916202062607435</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>768</v>
       </c>
-      <c r="B10" s="2">
-        <v>293761</v>
-      </c>
-      <c r="C10" s="2">
-        <v>294528</v>
-      </c>
-      <c r="D10" s="2">
-        <v>144926</v>
-      </c>
-      <c r="E10" s="2">
-        <v>761</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>382.50130208333331</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>383.5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>188.70572916666666</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0.99088541666666663</v>
-      </c>
-      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="e">
         <f t="shared" si="4"/>
-        <v>5.4679941379176036</v>
-      </c>
-      <c r="K10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="K10" s="2" t="e">
         <f t="shared" si="5"/>
-        <v>5.4691265883165121</v>
-      </c>
-      <c r="L10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="L10" s="2" t="e">
         <f t="shared" si="6"/>
-        <v>5.1611463057168381</v>
-      </c>
-      <c r="M10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="M10" s="2" t="e">
         <f t="shared" si="7"/>
-        <v>2.8813846567705728</v>
-      </c>
-      <c r="N10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>12.590521790547902</v>
-      </c>
-      <c r="O10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="O10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>12.593129353954984</v>
-      </c>
-      <c r="P10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="P10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>11.883978546304879</v>
-      </c>
-      <c r="Q10" s="2">
+        <v>#NUM!</v>
+      </c>
+      <c r="Q10" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>6.6346333578616861</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
